--- a/iselUssSyncV2/OutputWSL/20220517_1344_D60L474W90Q8.1U0.18H56G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1344_D60L474W90Q8.1U0.18H56G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>57.599523809523816</v>
+        <v>58.657349896480341</v>
       </c>
       <c r="F2" s="0">
-        <v>57.523412698412663</v>
+        <v>58.578985820942307</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>58.080317460317488</v>
+        <v>59.092468854739799</v>
       </c>
       <c r="F3" s="0">
-        <v>59.432579365079405</v>
+        <v>60.168236735597333</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>56.835992063492021</v>
+        <v>56.203849206349162</v>
       </c>
       <c r="F4" s="0">
-        <v>60.626111111111094</v>
+        <v>59.107420634920615</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>56.026468253968225</v>
+        <v>55.347145544804874</v>
       </c>
       <c r="F5" s="0">
-        <v>60.928650793650782</v>
+        <v>59.598411749826077</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>54.589007936507912</v>
+        <v>53.787936507936486</v>
       </c>
       <c r="F6" s="0">
-        <v>61.254761904761928</v>
+        <v>58.837857142857168</v>
       </c>
     </row>
     <row r="7">
@@ -222,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>51.981666666666641</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>51.784087301587277</v>
+      </c>
+      <c r="F7" s="0">
+        <v>59.999841269841298</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -240,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>46.999601593625485</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>46.799085720609611</v>
+      </c>
+      <c r="F8" s="0">
+        <v>65.250318725099632</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -258,9 +262,11 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>44.612908366533858</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>43.786916303041792</v>
+      </c>
+      <c r="F9" s="0">
+        <v>63.489083665338661</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -276,10 +282,10 @@
         <v>-106</v>
       </c>
       <c r="E10" s="0">
-        <v>41.757290836653382</v>
+        <v>40.678725099601586</v>
       </c>
       <c r="F10" s="0">
-        <v>35.252350597609563</v>
+        <v>32.555697211155383</v>
       </c>
     </row>
     <row r="11">
@@ -296,10 +302,10 @@
         <v>-106</v>
       </c>
       <c r="E11" s="0">
-        <v>40.850952380952378</v>
+        <v>39.783063934737243</v>
       </c>
       <c r="F11" s="0">
-        <v>35.987420634920639</v>
+        <v>33.298018244482392</v>
       </c>
     </row>
     <row r="12">
@@ -316,10 +322,10 @@
         <v>-106</v>
       </c>
       <c r="E12" s="0">
-        <v>40.001912350597614</v>
+        <v>39.825418326693232</v>
       </c>
       <c r="F12" s="0">
-        <v>35.565657370517926</v>
+        <v>32.912031872509957</v>
       </c>
     </row>
     <row r="13">
@@ -336,10 +342,10 @@
         <v>-106</v>
       </c>
       <c r="E13" s="0">
-        <v>39.533107569721111</v>
+        <v>38.457393284006827</v>
       </c>
       <c r="F13" s="0">
-        <v>35.729442231075687</v>
+        <v>33.035553342186802</v>
       </c>
     </row>
     <row r="14">
@@ -356,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>41.392868525896418</v>
+        <v>40.346932270916341</v>
       </c>
       <c r="F14" s="0">
-        <v>36.568247011952195</v>
+        <v>33.900836653386456</v>
       </c>
     </row>
     <row r="15">
@@ -376,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>42.684920634920644</v>
+        <v>41.633730158730167</v>
       </c>
       <c r="F15" s="0">
-        <v>37.198373015873024</v>
+        <v>34.537023809523816</v>
       </c>
     </row>
     <row r="16">
@@ -396,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>44.012738095238092</v>
+        <v>42.979920634920632</v>
       </c>
       <c r="F16" s="0">
-        <v>38.253650793650792</v>
+        <v>36.239484126984124</v>
       </c>
     </row>
     <row r="17">
@@ -416,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>44.183944223107581</v>
+        <v>43.839063270726626</v>
       </c>
       <c r="F17" s="0">
-        <v>38.51091633466136</v>
+        <v>35.945876652121676</v>
       </c>
     </row>
     <row r="18">
@@ -436,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>43.138406374501983</v>
+        <v>42.08066827926389</v>
       </c>
       <c r="F18" s="0">
-        <v>38.503705179282868</v>
+        <v>35.822554385632074</v>
       </c>
     </row>
     <row r="19">
@@ -456,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>34.579087301587307</v>
+        <v>33.538928571428578</v>
       </c>
       <c r="F19" s="0">
-        <v>38.461111111111101</v>
+        <v>35.803849206349192</v>
       </c>
     </row>
     <row r="20">
@@ -476,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>37.074023904382479</v>
+        <v>35.986960412318986</v>
       </c>
       <c r="F20" s="0">
-        <v>38.496374501992008</v>
+        <v>35.791096724214228</v>
       </c>
     </row>
     <row r="21">
@@ -496,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>39.231394422310764</v>
+        <v>38.184223107569728</v>
       </c>
       <c r="F21" s="0">
-        <v>38.661434262948198</v>
+        <v>36.019840637450194</v>
       </c>
     </row>
     <row r="22">
@@ -516,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>38.53003968253968</v>
+        <v>37.052658730158726</v>
       </c>
       <c r="F22" s="0">
-        <v>38.617619047619037</v>
+        <v>36.336190476190467</v>
       </c>
     </row>
     <row r="23">
@@ -536,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>36.425697211155381</v>
+        <v>34.908645418326699</v>
       </c>
       <c r="F23" s="0">
-        <v>39.108087649402378</v>
+        <v>36.408605577689229</v>
       </c>
     </row>
     <row r="24">
@@ -556,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>37.747857142857143</v>
+        <v>36.262518497438819</v>
       </c>
       <c r="F24" s="0">
-        <v>39.142539682539685</v>
+        <v>36.021742869790678</v>
       </c>
     </row>
     <row r="25">
@@ -576,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>37.409563492063498</v>
+        <v>36.574841269841272</v>
       </c>
       <c r="F25" s="0">
-        <v>38.945912698412691</v>
+        <v>36.628095238095227</v>
       </c>
     </row>
     <row r="26">
@@ -596,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>37.849840637450193</v>
+        <v>37.221633466135451</v>
       </c>
       <c r="F26" s="0">
-        <v>39.160677290836652</v>
+        <v>37.475059760956171</v>
       </c>
     </row>
     <row r="27">
@@ -616,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>36.593769841269832</v>
+        <v>35.915164263580586</v>
       </c>
       <c r="F27" s="0">
-        <v>39.034246031746036</v>
+        <v>37.542532884335678</v>
       </c>
     </row>
     <row r="28">
@@ -636,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>37.612350597609549</v>
+        <v>37.457112502371452</v>
       </c>
       <c r="F28" s="0">
-        <v>38.8908764940239</v>
+        <v>37.485082843230245</v>
       </c>
     </row>
     <row r="29">
@@ -656,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>37.990039840637451</v>
+        <v>37.33047634857396</v>
       </c>
       <c r="F29" s="0">
-        <v>39.212788844621514</v>
+        <v>37.749019003351677</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>38.005338645418327</v>
+        <v>37.818433883513563</v>
       </c>
       <c r="F30" s="0">
-        <v>38.524501992031873</v>
+        <v>37.931446436476314</v>
       </c>
     </row>
   </sheetData>
